--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 11,8</t>
+          <t>-9,13; 12,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 16,52</t>
+          <t>-6,05; 16,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 17,21</t>
+          <t>-9,61; 16,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,56; -6,26</t>
+          <t>-29,65; -4,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 174,24</t>
+          <t>-52,74; 208,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 179,59</t>
+          <t>-33,7; 167,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 191,34</t>
+          <t>-46,02; 190,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,39; -17,11</t>
+          <t>-88,06; -18,13</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,69</t>
+          <t>-4,24; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,68</t>
+          <t>-4,02; 3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,06</t>
+          <t>-2,57; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,62</t>
+          <t>-4,29; 1,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 28,73</t>
+          <t>-48,26; 34,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 45,16</t>
+          <t>-33,81; 42,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 75,09</t>
+          <t>-29,28; 78,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 27,64</t>
+          <t>-47,32; 24,12</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 2,24</t>
+          <t>-7,81; 1,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,52</t>
+          <t>-3,63; 6,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,33</t>
+          <t>0,69; 9,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,8</t>
+          <t>-1,58; 5,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 58,69</t>
+          <t>-75,47; 54,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,14; 196,6</t>
+          <t>-52,15; 231,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 795,92</t>
+          <t>-13,72; 787,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 347,76</t>
+          <t>-41,93; 363,64</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,36</t>
+          <t>-3,99; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,23</t>
+          <t>-2,45; 3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,61</t>
+          <t>-0,58; 4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,54</t>
+          <t>-4,17; 0,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 21,82</t>
+          <t>-43,32; 18,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 53,82</t>
+          <t>-22,78; 46,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 83,64</t>
+          <t>-7,94; 81,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 8,11</t>
+          <t>-45,6; 8,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-18,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,28%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,8; 11,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; 16,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,84; 17,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,74; -6,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,85; 168,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,01; 184,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,14; 181,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,34; -24,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,68</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>-18,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,09%</t>
+          <t>-21,61%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 12,87</t>
+          <t>-4,89; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 16,04</t>
+          <t>-4,17; 4,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 16,94</t>
+          <t>-1,98; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,65; -4,8</t>
+          <t>-5,01; 1,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 208,12</t>
+          <t>-50,88; 28,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 167,7</t>
+          <t>-34,75; 56,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 190,58</t>
+          <t>-24,62; 85,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,06; -18,13</t>
+          <t>-53,01; 15,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-18,48%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>170,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>62,78%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,09</t>
+          <t>-7,84; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,43</t>
+          <t>-3,04; 7,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,14</t>
+          <t>0,55; 9,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,51</t>
+          <t>-1,52; 5,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 34,66</t>
+          <t>-75,5; 50,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 42,28</t>
+          <t>-45,72; 258,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 78,42</t>
+          <t>-0,1; 857,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 24,12</t>
+          <t>-46,42; 347,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,52%</t>
+          <t>-17,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>170,36%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>-26,7%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 1,97</t>
+          <t>-3,97; 1,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,99</t>
+          <t>-2,11; 4,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 9,31</t>
+          <t>-0,73; 4,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 5,73</t>
+          <t>-4,71; 0,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 54,56</t>
+          <t>-42,67; 18,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,15; 231,56</t>
+          <t>-19,37; 52,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 787,6</t>
+          <t>-9,69; 81,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 363,64</t>
+          <t>-49,81; 3,54</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-17,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28,81%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-23,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 1,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 4,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 0,43</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-43,32; 18,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 46,11</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 81,73</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-45,6; 8,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
